--- a/database/industries/felezat/fameli/cashflow/quarterly.xlsx
+++ b/database/industries/felezat/fameli/cashflow/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\fameli\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B586FF-8E02-46F5-B5FC-8BD06EFC35F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فملی-ملی‌ صنایع‌ مس‌ ایران‌</t>
@@ -36,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -66,37 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-05-20 (4)</t>
-  </si>
-  <si>
-    <t>1400-09-15 (4)</t>
-  </si>
-  <si>
-    <t>1400-10-29 (3)</t>
-  </si>
-  <si>
-    <t>1401-04-18 (12)</t>
-  </si>
-  <si>
-    <t>1401-04-30 (4)</t>
-  </si>
-  <si>
-    <t>1401-07-30 (3)</t>
-  </si>
-  <si>
-    <t>1400-10-29</t>
-  </si>
-  <si>
-    <t>1401-07-30 (5)</t>
+    <t>1401-10-28 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-28 (7)</t>
   </si>
   <si>
     <t>1401-04-30</t>
   </si>
   <si>
-    <t>1401-07-30</t>
+    <t>1401-09-15 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-28</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -243,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,7 +412,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -453,7 +424,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -500,6 +471,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -535,6 +523,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,23 +691,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -710,13 +713,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -726,13 +724,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -742,13 +735,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -756,13 +744,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -772,13 +755,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -788,13 +766,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -802,13 +775,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -828,59 +796,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -888,15 +826,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -904,123 +837,73 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>47600930</v>
+        <v>146415378</v>
       </c>
       <c r="E12" s="15">
-        <v>76720653</v>
+        <v>20162525</v>
       </c>
       <c r="F12" s="15">
-        <v>27889701</v>
+        <v>101370285</v>
       </c>
       <c r="G12" s="15">
-        <v>45084157</v>
+        <v>249880288</v>
       </c>
       <c r="H12" s="15">
-        <v>9270396</v>
-      </c>
-      <c r="I12" s="15">
-        <v>74674378</v>
-      </c>
-      <c r="J12" s="15">
-        <v>146415378</v>
-      </c>
-      <c r="K12" s="15">
-        <v>20162525</v>
-      </c>
-      <c r="L12" s="15">
-        <v>101370285</v>
-      </c>
-      <c r="M12" s="15">
-        <v>126363734</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>30293748</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-8918336</v>
+        <v>3085183</v>
       </c>
       <c r="E13" s="11">
-        <v>2695738</v>
+        <v>-8835183</v>
       </c>
       <c r="F13" s="11">
-        <v>-700772</v>
+        <v>-11694819</v>
       </c>
       <c r="G13" s="11">
-        <v>-1700000</v>
+        <v>-5948733</v>
       </c>
       <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>-6913561</v>
-      </c>
-      <c r="J13" s="11">
-        <v>3085183</v>
-      </c>
-      <c r="K13" s="11">
-        <v>-8835183</v>
-      </c>
-      <c r="L13" s="11">
-        <v>-11694819</v>
-      </c>
-      <c r="M13" s="11">
-        <v>11694819</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-12925498</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>29764258</v>
+        <v>149500561</v>
       </c>
       <c r="E14" s="17">
-        <v>88334727</v>
+        <v>11327342</v>
       </c>
       <c r="F14" s="17">
-        <v>27188929</v>
+        <v>89675466</v>
       </c>
       <c r="G14" s="17">
-        <v>43384157</v>
+        <v>243931555</v>
       </c>
       <c r="H14" s="17">
-        <v>9270396</v>
-      </c>
-      <c r="I14" s="17">
-        <v>67760817</v>
-      </c>
-      <c r="J14" s="17">
-        <v>149500561</v>
-      </c>
-      <c r="K14" s="17">
-        <v>11327342</v>
-      </c>
-      <c r="L14" s="17">
-        <v>89675466</v>
-      </c>
-      <c r="M14" s="17">
-        <v>138058553</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>17368250</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1028,87 +911,52 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
         <v>0</v>
       </c>
       <c r="E16" s="15">
-        <v>358463</v>
+        <v>782294</v>
       </c>
       <c r="F16" s="15">
-        <v>0</v>
+        <v>6207</v>
       </c>
       <c r="G16" s="15">
-        <v>-16141</v>
+        <v>30998</v>
       </c>
       <c r="H16" s="15">
-        <v>14749</v>
-      </c>
-      <c r="I16" s="15">
-        <v>551243</v>
-      </c>
-      <c r="J16" s="15">
-        <v>0</v>
-      </c>
-      <c r="K16" s="15">
-        <v>782294</v>
-      </c>
-      <c r="L16" s="15">
-        <v>6207</v>
-      </c>
-      <c r="M16" s="15">
-        <v>33799</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1311081</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-3942219</v>
+        <v>-17537139</v>
       </c>
       <c r="E17" s="11">
-        <v>-10128416</v>
+        <v>-32611893</v>
       </c>
       <c r="F17" s="11">
-        <v>-12364445</v>
+        <v>-22032593</v>
       </c>
       <c r="G17" s="11">
-        <v>-23043585</v>
+        <v>-37245100</v>
       </c>
       <c r="H17" s="11">
-        <v>-9018910</v>
-      </c>
-      <c r="I17" s="11">
-        <v>-17878025</v>
-      </c>
-      <c r="J17" s="11">
-        <v>-17537139</v>
-      </c>
-      <c r="K17" s="11">
-        <v>-32611893</v>
-      </c>
-      <c r="L17" s="11">
-        <v>-22032593</v>
-      </c>
-      <c r="M17" s="11">
-        <v>-15368954</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-26911023</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -1126,97 +974,52 @@
       <c r="H18" s="15">
         <v>0</v>
       </c>
-      <c r="I18" s="15">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0</v>
-      </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-      <c r="M18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>4199</v>
+        <v>-16704</v>
       </c>
       <c r="E19" s="11">
-        <v>1878417</v>
+        <v>10082782</v>
       </c>
       <c r="F19" s="11">
-        <v>-912546</v>
+        <v>144436</v>
       </c>
       <c r="G19" s="11">
-        <v>2062715</v>
+        <v>9922853</v>
       </c>
       <c r="H19" s="11">
-        <v>4570</v>
-      </c>
-      <c r="I19" s="11">
-        <v>180959</v>
-      </c>
-      <c r="J19" s="11">
-        <v>-16704</v>
-      </c>
-      <c r="K19" s="11">
-        <v>10082782</v>
-      </c>
-      <c r="L19" s="11">
-        <v>144436</v>
-      </c>
-      <c r="M19" s="11">
-        <v>-128561</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>184318</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>-332809</v>
+        <v>-447690</v>
       </c>
       <c r="E20" s="15">
-        <v>332590</v>
+        <v>-8639519</v>
       </c>
       <c r="F20" s="15">
-        <v>0</v>
+        <v>-164416</v>
       </c>
       <c r="G20" s="15">
-        <v>-2727485</v>
+        <v>-10195616</v>
       </c>
       <c r="H20" s="15">
-        <v>-491408</v>
-      </c>
-      <c r="I20" s="15">
-        <v>-1840421</v>
-      </c>
-      <c r="J20" s="15">
-        <v>-447690</v>
-      </c>
-      <c r="K20" s="15">
-        <v>-8639519</v>
-      </c>
-      <c r="L20" s="15">
-        <v>-164416</v>
-      </c>
-      <c r="M20" s="15">
-        <v>-90349</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-669089</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1234,25 +1037,10 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1270,169 +1058,94 @@
       <c r="H22" s="15">
         <v>0</v>
       </c>
-      <c r="I22" s="15">
-        <v>0</v>
-      </c>
-      <c r="J22" s="15">
-        <v>0</v>
-      </c>
-      <c r="K22" s="15">
-        <v>0</v>
-      </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
         <v>0</v>
       </c>
       <c r="E23" s="11">
-        <v>0</v>
+        <v>-45715349</v>
       </c>
       <c r="F23" s="11">
-        <v>0</v>
+        <v>104191868</v>
       </c>
       <c r="G23" s="11">
-        <v>16538085</v>
+        <v>18499945</v>
       </c>
       <c r="H23" s="11">
-        <v>3095889</v>
-      </c>
-      <c r="I23" s="11">
-        <v>42619460</v>
-      </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-      <c r="K23" s="11">
-        <v>-45715349</v>
-      </c>
-      <c r="L23" s="11">
-        <v>104191868</v>
-      </c>
-      <c r="M23" s="11">
-        <v>13353502</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>-3116904</v>
+        <v>-101660702</v>
       </c>
       <c r="E24" s="15">
-        <v>-43502908</v>
+        <v>53376093</v>
       </c>
       <c r="F24" s="15">
-        <v>-16818398</v>
+        <v>-123091051</v>
       </c>
       <c r="G24" s="15">
-        <v>-13944668</v>
+        <v>18450585</v>
       </c>
       <c r="H24" s="15">
-        <v>-23707211</v>
-      </c>
-      <c r="I24" s="15">
-        <v>-74316199</v>
-      </c>
-      <c r="J24" s="15">
-        <v>-101660702</v>
-      </c>
-      <c r="K24" s="15">
-        <v>53376093</v>
-      </c>
-      <c r="L24" s="15">
-        <v>-123091051</v>
-      </c>
-      <c r="M24" s="15">
-        <v>-67528866</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-26613995</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
         <v>0</v>
       </c>
       <c r="E25" s="11">
-        <v>3673134</v>
+        <v>54752000</v>
       </c>
       <c r="F25" s="11">
-        <v>0</v>
+        <v>24731161</v>
       </c>
       <c r="G25" s="11">
-        <v>14917984</v>
+        <v>13688984</v>
       </c>
       <c r="H25" s="11">
-        <v>12546507</v>
-      </c>
-      <c r="I25" s="11">
-        <v>27403493</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>54752000</v>
-      </c>
-      <c r="L25" s="11">
-        <v>24731161</v>
-      </c>
-      <c r="M25" s="11">
-        <v>20408949</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>-2745766</v>
+        <v>-228031</v>
       </c>
       <c r="E26" s="15">
-        <v>-42518767</v>
+        <v>-71749093</v>
       </c>
       <c r="F26" s="15">
-        <v>-9550883</v>
+        <v>-41808707</v>
       </c>
       <c r="G26" s="15">
-        <v>-15339326</v>
+        <v>-161412818</v>
       </c>
       <c r="H26" s="15">
-        <v>-9060371</v>
-      </c>
-      <c r="I26" s="15">
-        <v>2532185</v>
-      </c>
-      <c r="J26" s="15">
-        <v>-228031</v>
-      </c>
-      <c r="K26" s="15">
-        <v>-71749093</v>
-      </c>
-      <c r="L26" s="15">
-        <v>-41808707</v>
-      </c>
-      <c r="M26" s="15">
-        <v>-29078521</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>174396049</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1450,25 +1163,10 @@
       <c r="H27" s="11">
         <v>0</v>
       </c>
-      <c r="I27" s="11">
-        <v>0</v>
-      </c>
-      <c r="J27" s="11">
-        <v>0</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
-      </c>
-      <c r="L27" s="11">
-        <v>0</v>
-      </c>
-      <c r="M27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1486,25 +1184,10 @@
       <c r="H28" s="15">
         <v>0</v>
       </c>
-      <c r="I28" s="15">
-        <v>0</v>
-      </c>
-      <c r="J28" s="15">
-        <v>0</v>
-      </c>
-      <c r="K28" s="15">
-        <v>0</v>
-      </c>
-      <c r="L28" s="15">
-        <v>0</v>
-      </c>
-      <c r="M28" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1522,29 +1205,14 @@
       <c r="H29" s="11">
         <v>0</v>
       </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11">
-        <v>0</v>
-      </c>
-      <c r="M29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <v>0</v>
+        <v>-10059836</v>
       </c>
       <c r="E30" s="15">
         <v>0</v>
@@ -1553,138 +1221,78 @@
         <v>0</v>
       </c>
       <c r="G30" s="15">
-        <v>0</v>
+        <v>2652710</v>
       </c>
       <c r="H30" s="15">
-        <v>0</v>
-      </c>
-      <c r="I30" s="15">
-        <v>10059836</v>
-      </c>
-      <c r="J30" s="15">
-        <v>-10059836</v>
-      </c>
-      <c r="K30" s="15">
-        <v>0</v>
-      </c>
-      <c r="L30" s="15">
-        <v>0</v>
-      </c>
-      <c r="M30" s="15">
-        <v>2339651</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-2652710</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>1348139</v>
+        <v>16638983</v>
       </c>
       <c r="E31" s="11">
-        <v>2613966</v>
+        <v>24126236</v>
       </c>
       <c r="F31" s="11">
-        <v>1854634</v>
+        <v>5808248</v>
       </c>
       <c r="G31" s="11">
-        <v>7910631</v>
+        <v>-5808248</v>
       </c>
       <c r="H31" s="11">
-        <v>3594898</v>
-      </c>
-      <c r="I31" s="11">
-        <v>-3594898</v>
-      </c>
-      <c r="J31" s="11">
-        <v>16638983</v>
-      </c>
-      <c r="K31" s="11">
-        <v>24126236</v>
-      </c>
-      <c r="L31" s="11">
-        <v>5808248</v>
-      </c>
-      <c r="M31" s="11">
-        <v>11255245</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>24630558</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>-8785360</v>
+        <v>-113311119</v>
       </c>
       <c r="E32" s="17">
-        <v>-87293521</v>
+        <v>-15596449</v>
       </c>
       <c r="F32" s="17">
-        <v>-37791638</v>
+        <v>-52214847</v>
       </c>
       <c r="G32" s="17">
-        <v>-13641790</v>
+        <v>-151415707</v>
       </c>
       <c r="H32" s="17">
-        <v>-23021287</v>
-      </c>
-      <c r="I32" s="17">
-        <v>-14282367</v>
-      </c>
-      <c r="J32" s="17">
-        <v>-113311119</v>
-      </c>
-      <c r="K32" s="17">
-        <v>-15596449</v>
-      </c>
-      <c r="L32" s="17">
-        <v>-52214847</v>
-      </c>
-      <c r="M32" s="17">
-        <v>-64804105</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>143675189</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>20978898</v>
+        <v>36189442</v>
       </c>
       <c r="E33" s="19">
-        <v>1041206</v>
+        <v>-4269107</v>
       </c>
       <c r="F33" s="19">
-        <v>-10602709</v>
+        <v>37460619</v>
       </c>
       <c r="G33" s="19">
-        <v>29742367</v>
+        <v>92515848</v>
       </c>
       <c r="H33" s="19">
-        <v>-13750891</v>
-      </c>
-      <c r="I33" s="19">
-        <v>53478450</v>
-      </c>
-      <c r="J33" s="19">
-        <v>36189442</v>
-      </c>
-      <c r="K33" s="19">
-        <v>-4269107</v>
-      </c>
-      <c r="L33" s="19">
-        <v>37460619</v>
-      </c>
-      <c r="M33" s="19">
-        <v>73254448</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>161043439</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1692,15 +1300,10 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1718,133 +1321,73 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
         <v>0</v>
       </c>
       <c r="E37" s="15">
-        <v>0</v>
+        <v>12969359</v>
       </c>
       <c r="F37" s="15">
         <v>0</v>
       </c>
       <c r="G37" s="15">
-        <v>0</v>
+        <v>17657841</v>
       </c>
       <c r="H37" s="15">
         <v>0</v>
       </c>
-      <c r="I37" s="15">
-        <v>0</v>
-      </c>
-      <c r="J37" s="15">
-        <v>0</v>
-      </c>
-      <c r="K37" s="15">
-        <v>12969359</v>
-      </c>
-      <c r="L37" s="15">
-        <v>0</v>
-      </c>
-      <c r="M37" s="15">
-        <v>17724336</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
-        <v>0</v>
+        <v>-856380</v>
       </c>
       <c r="E38" s="11">
-        <v>0</v>
+        <v>-15784078</v>
       </c>
       <c r="F38" s="11">
-        <v>0</v>
+        <v>-1714394</v>
       </c>
       <c r="G38" s="11">
-        <v>-11591922</v>
+        <v>1635803</v>
       </c>
       <c r="H38" s="11">
         <v>0</v>
       </c>
-      <c r="I38" s="11">
-        <v>-1387559</v>
-      </c>
-      <c r="J38" s="11">
-        <v>-856380</v>
-      </c>
-      <c r="K38" s="11">
-        <v>-15784078</v>
-      </c>
-      <c r="L38" s="11">
-        <v>-1714394</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
@@ -1857,102 +1400,57 @@
         <v>0</v>
       </c>
       <c r="G39" s="15">
-        <v>2698767</v>
+        <v>0</v>
       </c>
       <c r="H39" s="15">
         <v>0</v>
       </c>
-      <c r="I39" s="15">
-        <v>0</v>
-      </c>
-      <c r="J39" s="15">
-        <v>0</v>
-      </c>
-      <c r="K39" s="15">
-        <v>0</v>
-      </c>
-      <c r="L39" s="15">
-        <v>0</v>
-      </c>
-      <c r="M39" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-4953013</v>
+        <v>0</v>
       </c>
       <c r="E40" s="11">
-        <v>-853070</v>
+        <v>2</v>
       </c>
       <c r="F40" s="11">
         <v>0</v>
       </c>
       <c r="G40" s="11">
-        <v>-740550</v>
+        <v>0</v>
       </c>
       <c r="H40" s="11">
-        <v>-3474343</v>
-      </c>
-      <c r="I40" s="11">
-        <v>-245448</v>
-      </c>
-      <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40" s="11">
-        <v>2</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-193568</v>
+        <v>0</v>
       </c>
       <c r="E41" s="15">
-        <v>96902</v>
+        <v>0</v>
       </c>
       <c r="F41" s="15">
         <v>0</v>
       </c>
       <c r="G41" s="15">
-        <v>-225350</v>
+        <v>0</v>
       </c>
       <c r="H41" s="15">
-        <v>-157627</v>
-      </c>
-      <c r="I41" s="15">
-        <v>59412</v>
-      </c>
-      <c r="J41" s="15">
-        <v>0</v>
-      </c>
-      <c r="K41" s="15">
-        <v>0</v>
-      </c>
-      <c r="L41" s="15">
-        <v>0</v>
-      </c>
-      <c r="M41" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -1970,25 +1468,10 @@
       <c r="H42" s="11">
         <v>0</v>
       </c>
-      <c r="I42" s="11">
-        <v>0</v>
-      </c>
-      <c r="J42" s="11">
-        <v>0</v>
-      </c>
-      <c r="K42" s="11">
-        <v>0</v>
-      </c>
-      <c r="L42" s="11">
-        <v>0</v>
-      </c>
-      <c r="M42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -2006,25 +1489,10 @@
       <c r="H43" s="15">
         <v>0</v>
       </c>
-      <c r="I43" s="15">
-        <v>0</v>
-      </c>
-      <c r="J43" s="15">
-        <v>0</v>
-      </c>
-      <c r="K43" s="15">
-        <v>0</v>
-      </c>
-      <c r="L43" s="15">
-        <v>0</v>
-      </c>
-      <c r="M43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -2042,25 +1510,10 @@
       <c r="H44" s="11">
         <v>0</v>
       </c>
-      <c r="I44" s="11">
-        <v>0</v>
-      </c>
-      <c r="J44" s="11">
-        <v>0</v>
-      </c>
-      <c r="K44" s="11">
-        <v>0</v>
-      </c>
-      <c r="L44" s="11">
-        <v>0</v>
-      </c>
-      <c r="M44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2078,25 +1531,10 @@
       <c r="H45" s="15">
         <v>0</v>
       </c>
-      <c r="I45" s="15">
-        <v>0</v>
-      </c>
-      <c r="J45" s="15">
-        <v>0</v>
-      </c>
-      <c r="K45" s="15">
-        <v>0</v>
-      </c>
-      <c r="L45" s="15">
-        <v>0</v>
-      </c>
-      <c r="M45" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2114,25 +1552,10 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2150,25 +1573,10 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2186,25 +1594,10 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
-        <v>0</v>
-      </c>
-      <c r="M48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2222,275 +1615,155 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-      <c r="I49" s="15">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-16717</v>
+        <v>-12623967</v>
       </c>
       <c r="E50" s="11">
-        <v>-2136116</v>
+        <v>-42576105</v>
       </c>
       <c r="F50" s="11">
-        <v>-1418286</v>
+        <v>-94819</v>
       </c>
       <c r="G50" s="11">
-        <v>-19503290</v>
+        <v>-44408770</v>
       </c>
       <c r="H50" s="11">
-        <v>-63800</v>
-      </c>
-      <c r="I50" s="11">
-        <v>-4760650</v>
-      </c>
-      <c r="J50" s="11">
-        <v>-12623967</v>
-      </c>
-      <c r="K50" s="11">
-        <v>-42576105</v>
-      </c>
-      <c r="L50" s="11">
-        <v>-94819</v>
-      </c>
-      <c r="M50" s="11">
-        <v>-25902772</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-220414231</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>-5180015</v>
+        <v>-13480347</v>
       </c>
       <c r="E51" s="17">
-        <v>-2875567</v>
+        <v>-45390822</v>
       </c>
       <c r="F51" s="17">
-        <v>-1418286</v>
+        <v>-1809213</v>
       </c>
       <c r="G51" s="17">
-        <v>-29362345</v>
+        <v>-25115126</v>
       </c>
       <c r="H51" s="17">
-        <v>-3695770</v>
-      </c>
-      <c r="I51" s="17">
-        <v>-6334245</v>
-      </c>
-      <c r="J51" s="17">
-        <v>-13480347</v>
-      </c>
-      <c r="K51" s="17">
-        <v>-45390822</v>
-      </c>
-      <c r="L51" s="17">
-        <v>-1809213</v>
-      </c>
-      <c r="M51" s="17">
-        <v>-8178436</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-220414231</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>24733936</v>
+        <v>22709095</v>
       </c>
       <c r="E52" s="19">
-        <v>-10769414</v>
+        <v>-49659929</v>
       </c>
       <c r="F52" s="19">
-        <v>-12020995</v>
+        <v>35651406</v>
       </c>
       <c r="G52" s="19">
-        <v>380022</v>
+        <v>67400722</v>
       </c>
       <c r="H52" s="19">
-        <v>-17446661</v>
-      </c>
-      <c r="I52" s="19">
-        <v>47144205</v>
-      </c>
-      <c r="J52" s="19">
-        <v>22709095</v>
-      </c>
-      <c r="K52" s="19">
-        <v>-49659929</v>
-      </c>
-      <c r="L52" s="19">
-        <v>35651406</v>
-      </c>
-      <c r="M52" s="19">
-        <v>65076012</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-59370792</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>26659685</v>
+        <v>60094972</v>
       </c>
       <c r="E53" s="15">
-        <v>51393621</v>
+        <v>82804067</v>
       </c>
       <c r="F53" s="15">
-        <v>41295577</v>
+        <v>33040302</v>
       </c>
       <c r="G53" s="15">
-        <v>29274582</v>
+        <v>68691708</v>
       </c>
       <c r="H53" s="15">
-        <v>29825975</v>
-      </c>
-      <c r="I53" s="15">
-        <v>12379314</v>
-      </c>
-      <c r="J53" s="15">
-        <v>60094972</v>
-      </c>
-      <c r="K53" s="15">
-        <v>82804067</v>
-      </c>
-      <c r="L53" s="15">
-        <v>33040302</v>
-      </c>
-      <c r="M53" s="15">
-        <v>68691708</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+        <v>136249979</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
         <v>0</v>
       </c>
       <c r="E54" s="11">
-        <v>671370</v>
+        <v>-103836</v>
       </c>
       <c r="F54" s="11">
         <v>0</v>
       </c>
       <c r="G54" s="11">
-        <v>171371</v>
+        <v>157549</v>
       </c>
       <c r="H54" s="11">
         <v>0</v>
       </c>
-      <c r="I54" s="11">
-        <v>571453</v>
-      </c>
-      <c r="J54" s="11">
-        <v>0</v>
-      </c>
-      <c r="K54" s="11">
-        <v>-103836</v>
-      </c>
-      <c r="L54" s="11">
-        <v>0</v>
-      </c>
-      <c r="M54" s="11">
-        <v>157549</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>51393621</v>
+        <v>82804067</v>
       </c>
       <c r="E55" s="17">
-        <v>41295577</v>
+        <v>33040302</v>
       </c>
       <c r="F55" s="17">
-        <v>29274582</v>
+        <v>68691708</v>
       </c>
       <c r="G55" s="17">
-        <v>29825975</v>
+        <v>136249979</v>
       </c>
       <c r="H55" s="17">
-        <v>12379314</v>
-      </c>
-      <c r="I55" s="17">
-        <v>60094972</v>
-      </c>
-      <c r="J55" s="17">
-        <v>82804067</v>
-      </c>
-      <c r="K55" s="17">
-        <v>33040302</v>
-      </c>
-      <c r="L55" s="17">
-        <v>68691708</v>
-      </c>
-      <c r="M55" s="17">
-        <v>133925269</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+        <v>76879187</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
         <v>0</v>
       </c>
       <c r="E56" s="11">
-        <v>2909358</v>
+        <v>0</v>
       </c>
       <c r="F56" s="11">
         <v>0</v>
       </c>
       <c r="G56" s="11">
-        <v>-923105</v>
+        <v>0</v>
       </c>
       <c r="H56" s="11">
         <v>0</v>
       </c>
-      <c r="I56" s="11">
-        <v>4390433</v>
-      </c>
-      <c r="J56" s="11">
-        <v>0</v>
-      </c>
-      <c r="K56" s="11">
-        <v>0</v>
-      </c>
-      <c r="L56" s="11">
-        <v>0</v>
-      </c>
-      <c r="M56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2498,11 +1771,6 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/felezat/fameli/cashflow/quarterly.xlsx
+++ b/database/industries/felezat/fameli/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\fameli\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fameli\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B586FF-8E02-46F5-B5FC-8BD06EFC35F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67381DEF-10DC-4D66-9220-F6458EEE5B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-09-15 (4)</t>
+  </si>
+  <si>
+    <t>1400-10-29 (3)</t>
+  </si>
+  <si>
+    <t>1401-04-18 (12)</t>
+  </si>
+  <si>
+    <t>1401-04-30 (4)</t>
+  </si>
+  <si>
+    <t>1401-09-15 (4)</t>
   </si>
   <si>
     <t>1401-10-28 (2)</t>
@@ -692,20 +722,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H57"/>
+  <dimension ref="B1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -713,8 +745,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,8 +761,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -735,8 +777,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -744,8 +791,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -755,8 +807,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -766,8 +823,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -775,8 +837,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -796,29 +863,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -826,10 +923,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -837,73 +939,123 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>76720653</v>
+      </c>
+      <c r="E12" s="15">
+        <v>27889701</v>
+      </c>
+      <c r="F12" s="15">
+        <v>45084157</v>
+      </c>
+      <c r="G12" s="15">
+        <v>9270396</v>
+      </c>
+      <c r="H12" s="15">
+        <v>74674378</v>
+      </c>
+      <c r="I12" s="15">
         <v>146415378</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>20162525</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>101370285</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>249880288</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>30293748</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>2695738</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-700772</v>
+      </c>
+      <c r="F13" s="11">
+        <v>-1700000</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-6913561</v>
+      </c>
+      <c r="I13" s="11">
         <v>3085183</v>
       </c>
-      <c r="E13" s="11">
+      <c r="J13" s="11">
         <v>-8835183</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>-11694819</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>-5948733</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>-12925498</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>88334727</v>
+      </c>
+      <c r="E14" s="17">
+        <v>27188929</v>
+      </c>
+      <c r="F14" s="17">
+        <v>43384157</v>
+      </c>
+      <c r="G14" s="17">
+        <v>9270396</v>
+      </c>
+      <c r="H14" s="17">
+        <v>67760817</v>
+      </c>
+      <c r="I14" s="17">
         <v>149500561</v>
       </c>
-      <c r="E14" s="17">
+      <c r="J14" s="17">
         <v>11327342</v>
       </c>
-      <c r="F14" s="17">
+      <c r="K14" s="17">
         <v>89675466</v>
       </c>
-      <c r="G14" s="17">
+      <c r="L14" s="17">
         <v>243931555</v>
       </c>
-      <c r="H14" s="17">
+      <c r="M14" s="17">
         <v>17368250</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -911,52 +1063,87 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>0</v>
+        <v>358463</v>
       </c>
       <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>-16141</v>
+      </c>
+      <c r="G16" s="15">
+        <v>14749</v>
+      </c>
+      <c r="H16" s="15">
+        <v>551243</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
         <v>782294</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>6207</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>30998</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>1311081</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
+        <v>-10128416</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-12364445</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-23043585</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-9018910</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-17878025</v>
+      </c>
+      <c r="I17" s="11">
         <v>-17537139</v>
       </c>
-      <c r="E17" s="11">
+      <c r="J17" s="11">
         <v>-32611893</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>-22032593</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>-37245100</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>-26911023</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -974,52 +1161,97 @@
       <c r="H18" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>1878417</v>
+      </c>
+      <c r="E19" s="11">
+        <v>-912546</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2062715</v>
+      </c>
+      <c r="G19" s="11">
+        <v>4570</v>
+      </c>
+      <c r="H19" s="11">
+        <v>180959</v>
+      </c>
+      <c r="I19" s="11">
         <v>-16704</v>
       </c>
-      <c r="E19" s="11">
+      <c r="J19" s="11">
         <v>10082782</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>144436</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>9922853</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>184318</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>332590</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <v>-2727485</v>
+      </c>
+      <c r="G20" s="15">
+        <v>-491408</v>
+      </c>
+      <c r="H20" s="15">
+        <v>-1840421</v>
+      </c>
+      <c r="I20" s="15">
         <v>-447690</v>
       </c>
-      <c r="E20" s="15">
+      <c r="J20" s="15">
         <v>-8639519</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>-164416</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>-10195616</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>-669089</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1037,10 +1269,25 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1058,94 +1305,169 @@
       <c r="H22" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
         <v>0</v>
       </c>
       <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>16538085</v>
+      </c>
+      <c r="G23" s="11">
+        <v>3095889</v>
+      </c>
+      <c r="H23" s="11">
+        <v>42619460</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
         <v>-45715349</v>
       </c>
-      <c r="F23" s="11">
+      <c r="K23" s="11">
         <v>104191868</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>18499945</v>
       </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
+        <v>-43502908</v>
+      </c>
+      <c r="E24" s="15">
+        <v>-16818398</v>
+      </c>
+      <c r="F24" s="15">
+        <v>-13944668</v>
+      </c>
+      <c r="G24" s="15">
+        <v>-23707211</v>
+      </c>
+      <c r="H24" s="15">
+        <v>-74316199</v>
+      </c>
+      <c r="I24" s="15">
         <v>-101660702</v>
       </c>
-      <c r="E24" s="15">
+      <c r="J24" s="15">
         <v>53376093</v>
       </c>
-      <c r="F24" s="15">
+      <c r="K24" s="15">
         <v>-123091051</v>
       </c>
-      <c r="G24" s="15">
+      <c r="L24" s="15">
         <v>18450585</v>
       </c>
-      <c r="H24" s="15">
+      <c r="M24" s="15">
         <v>-26613995</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>0</v>
+        <v>3673134</v>
       </c>
       <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>14917984</v>
+      </c>
+      <c r="G25" s="11">
+        <v>12546507</v>
+      </c>
+      <c r="H25" s="11">
+        <v>27403493</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
         <v>54752000</v>
       </c>
-      <c r="F25" s="11">
+      <c r="K25" s="11">
         <v>24731161</v>
       </c>
-      <c r="G25" s="11">
+      <c r="L25" s="11">
         <v>13688984</v>
       </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
+        <v>-42518767</v>
+      </c>
+      <c r="E26" s="15">
+        <v>-9550883</v>
+      </c>
+      <c r="F26" s="15">
+        <v>-15339326</v>
+      </c>
+      <c r="G26" s="15">
+        <v>-9060371</v>
+      </c>
+      <c r="H26" s="15">
+        <v>2532185</v>
+      </c>
+      <c r="I26" s="15">
         <v>-228031</v>
       </c>
-      <c r="E26" s="15">
+      <c r="J26" s="15">
         <v>-71749093</v>
       </c>
-      <c r="F26" s="15">
+      <c r="K26" s="15">
         <v>-41808707</v>
       </c>
-      <c r="G26" s="15">
+      <c r="L26" s="15">
         <v>-161412818</v>
       </c>
-      <c r="H26" s="15">
+      <c r="M26" s="15">
         <v>174396049</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1163,10 +1485,25 @@
       <c r="H27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1184,10 +1521,25 @@
       <c r="H28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1205,94 +1557,169 @@
       <c r="H29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
+        <v>0</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>10059836</v>
+      </c>
+      <c r="I30" s="15">
         <v>-10059836</v>
       </c>
-      <c r="E30" s="15">
-        <v>0</v>
-      </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
         <v>2652710</v>
       </c>
-      <c r="H30" s="15">
+      <c r="M30" s="15">
         <v>-2652710</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
+        <v>2613966</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1854634</v>
+      </c>
+      <c r="F31" s="11">
+        <v>7910631</v>
+      </c>
+      <c r="G31" s="11">
+        <v>3594898</v>
+      </c>
+      <c r="H31" s="11">
+        <v>-3594898</v>
+      </c>
+      <c r="I31" s="11">
         <v>16638983</v>
       </c>
-      <c r="E31" s="11">
+      <c r="J31" s="11">
         <v>24126236</v>
       </c>
-      <c r="F31" s="11">
+      <c r="K31" s="11">
         <v>5808248</v>
       </c>
-      <c r="G31" s="11">
+      <c r="L31" s="11">
         <v>-5808248</v>
       </c>
-      <c r="H31" s="11">
+      <c r="M31" s="11">
         <v>24630558</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
+        <v>-87293521</v>
+      </c>
+      <c r="E32" s="17">
+        <v>-37791638</v>
+      </c>
+      <c r="F32" s="17">
+        <v>-13641790</v>
+      </c>
+      <c r="G32" s="17">
+        <v>-23021287</v>
+      </c>
+      <c r="H32" s="17">
+        <v>-14282367</v>
+      </c>
+      <c r="I32" s="17">
         <v>-113311119</v>
       </c>
-      <c r="E32" s="17">
+      <c r="J32" s="17">
         <v>-15596449</v>
       </c>
-      <c r="F32" s="17">
+      <c r="K32" s="17">
         <v>-52214847</v>
       </c>
-      <c r="G32" s="17">
+      <c r="L32" s="17">
         <v>-151415707</v>
       </c>
-      <c r="H32" s="17">
+      <c r="M32" s="17">
         <v>143675189</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
+        <v>1041206</v>
+      </c>
+      <c r="E33" s="19">
+        <v>-10602709</v>
+      </c>
+      <c r="F33" s="19">
+        <v>29742367</v>
+      </c>
+      <c r="G33" s="19">
+        <v>-13750891</v>
+      </c>
+      <c r="H33" s="19">
+        <v>53478450</v>
+      </c>
+      <c r="I33" s="19">
         <v>36189442</v>
       </c>
-      <c r="E33" s="19">
+      <c r="J33" s="19">
         <v>-4269107</v>
       </c>
-      <c r="F33" s="19">
+      <c r="K33" s="19">
         <v>37460619</v>
       </c>
-      <c r="G33" s="19">
+      <c r="L33" s="19">
         <v>92515848</v>
       </c>
-      <c r="H33" s="19">
+      <c r="M33" s="19">
         <v>161043439</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1300,10 +1727,15 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1321,73 +1753,133 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
         <v>0</v>
       </c>
       <c r="E37" s="15">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <v>0</v>
+      </c>
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
         <v>12969359</v>
       </c>
-      <c r="F37" s="15">
-        <v>0</v>
-      </c>
-      <c r="G37" s="15">
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
         <v>17657841</v>
       </c>
-      <c r="H37" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>-11591922</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>-1387559</v>
+      </c>
+      <c r="I38" s="11">
         <v>-856380</v>
       </c>
-      <c r="E38" s="11">
+      <c r="J38" s="11">
         <v>-15784078</v>
       </c>
-      <c r="F38" s="11">
+      <c r="K38" s="11">
         <v>-1714394</v>
       </c>
-      <c r="G38" s="11">
+      <c r="L38" s="11">
         <v>1635803</v>
       </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
@@ -1397,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="15">
-        <v>0</v>
+        <v>2698767</v>
       </c>
       <c r="G39" s="15">
         <v>0</v>
@@ -1405,52 +1897,97 @@
       <c r="H39" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="15">
+        <v>0</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>0</v>
+        <v>-853070</v>
       </c>
       <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>-740550</v>
+      </c>
+      <c r="G40" s="11">
+        <v>-3474343</v>
+      </c>
+      <c r="H40" s="11">
+        <v>-245448</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
         <v>2</v>
       </c>
-      <c r="F40" s="11">
-        <v>0</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>0</v>
+        <v>96902</v>
       </c>
       <c r="E41" s="15">
         <v>0</v>
       </c>
       <c r="F41" s="15">
-        <v>0</v>
+        <v>-225350</v>
       </c>
       <c r="G41" s="15">
-        <v>0</v>
+        <v>-157627</v>
       </c>
       <c r="H41" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+        <v>59412</v>
+      </c>
+      <c r="I41" s="15">
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
+        <v>0</v>
+      </c>
+      <c r="M41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -1468,10 +2005,25 @@
       <c r="H42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -1489,10 +2041,25 @@
       <c r="H43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="15">
+        <v>0</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -1510,10 +2077,25 @@
       <c r="H44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -1531,10 +2113,25 @@
       <c r="H45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1552,10 +2149,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1573,10 +2185,25 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -1594,10 +2221,25 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1615,155 +2257,275 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>-2136116</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-1418286</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-19503290</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-63800</v>
+      </c>
+      <c r="H50" s="11">
+        <v>-4760650</v>
+      </c>
+      <c r="I50" s="11">
         <v>-12623967</v>
       </c>
-      <c r="E50" s="11">
+      <c r="J50" s="11">
         <v>-42576105</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>-94819</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>-44408770</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>-220414231</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
+        <v>-2875567</v>
+      </c>
+      <c r="E51" s="17">
+        <v>-1418286</v>
+      </c>
+      <c r="F51" s="17">
+        <v>-29362345</v>
+      </c>
+      <c r="G51" s="17">
+        <v>-3695770</v>
+      </c>
+      <c r="H51" s="17">
+        <v>-6334245</v>
+      </c>
+      <c r="I51" s="17">
         <v>-13480347</v>
       </c>
-      <c r="E51" s="17">
+      <c r="J51" s="17">
         <v>-45390822</v>
       </c>
-      <c r="F51" s="17">
+      <c r="K51" s="17">
         <v>-1809213</v>
       </c>
-      <c r="G51" s="17">
+      <c r="L51" s="17">
         <v>-25115126</v>
       </c>
-      <c r="H51" s="17">
+      <c r="M51" s="17">
         <v>-220414231</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>22709095</v>
+        <v>-10769414</v>
       </c>
       <c r="E52" s="19">
-        <v>-49659929</v>
+        <v>-12020995</v>
       </c>
       <c r="F52" s="19">
+        <v>380022</v>
+      </c>
+      <c r="G52" s="19">
+        <v>-17446661</v>
+      </c>
+      <c r="H52" s="19">
+        <v>47144205</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K52" s="19">
         <v>35651406</v>
       </c>
-      <c r="G52" s="19">
+      <c r="L52" s="19">
         <v>67400722</v>
       </c>
-      <c r="H52" s="19">
-        <v>-59370792</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M52" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>51393621</v>
+      </c>
+      <c r="E53" s="15">
+        <v>41295577</v>
+      </c>
+      <c r="F53" s="15">
+        <v>29274582</v>
+      </c>
+      <c r="G53" s="15">
+        <v>29825975</v>
+      </c>
+      <c r="H53" s="15">
+        <v>12379314</v>
+      </c>
+      <c r="I53" s="15">
         <v>60094972</v>
       </c>
-      <c r="E53" s="15">
+      <c r="J53" s="15">
         <v>82804067</v>
       </c>
-      <c r="F53" s="15">
+      <c r="K53" s="15">
         <v>33040302</v>
       </c>
-      <c r="G53" s="15">
+      <c r="L53" s="15">
         <v>68691708</v>
       </c>
-      <c r="H53" s="15">
+      <c r="M53" s="15">
         <v>136249979</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>0</v>
+        <v>671370</v>
       </c>
       <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>171371</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>571453</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
         <v>-103836</v>
       </c>
-      <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="11">
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
         <v>157549</v>
       </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
+        <v>41295577</v>
+      </c>
+      <c r="E55" s="17">
+        <v>29274582</v>
+      </c>
+      <c r="F55" s="17">
+        <v>29825975</v>
+      </c>
+      <c r="G55" s="17">
+        <v>12379314</v>
+      </c>
+      <c r="H55" s="17">
+        <v>60094972</v>
+      </c>
+      <c r="I55" s="17">
         <v>82804067</v>
       </c>
-      <c r="E55" s="17">
+      <c r="J55" s="17">
         <v>33040302</v>
       </c>
-      <c r="F55" s="17">
+      <c r="K55" s="17">
         <v>68691708</v>
       </c>
-      <c r="G55" s="17">
+      <c r="L55" s="17">
         <v>136249979</v>
       </c>
-      <c r="H55" s="17">
+      <c r="M55" s="17">
         <v>76879187</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>0</v>
+        <v>2909358</v>
       </c>
       <c r="E56" s="11">
         <v>0</v>
       </c>
       <c r="F56" s="11">
-        <v>0</v>
+        <v>-923105</v>
       </c>
       <c r="G56" s="11">
         <v>0</v>
       </c>
       <c r="H56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+        <v>4390433</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
+        <v>0</v>
+      </c>
+      <c r="L56" s="11">
+        <v>0</v>
+      </c>
+      <c r="M56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1771,6 +2533,11 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/felezat/fameli/cashflow/quarterly.xlsx
+++ b/database/industries/felezat/fameli/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fameli\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fameli\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67381DEF-10DC-4D66-9220-F6458EEE5B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B4DC9A-A027-40FB-987C-3A30FE4D5A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -726,7 +726,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -737,7 +737,7 @@
     <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,7 +751,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,7 +797,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -829,7 +829,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,7 +843,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -879,7 +879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -915,7 +915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -929,7 +929,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -945,7 +945,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
@@ -981,7 +981,7 @@
         <v>30293748</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>-12925498</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>17368250</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1069,7 +1069,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>1311081</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>-26911023</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>184318</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>-669089</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>-26613995</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>40</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>41</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>174396049</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>42</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>43</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>45</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>-2652710</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>46</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>24630558</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>47</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>143675189</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>48</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>161043439</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>49</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>50</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>51</v>
       </c>
@@ -1780,8 +1780,8 @@
       <c r="E36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>52</v>
+      <c r="F36" s="11">
+        <v>0</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>52</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>53</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>58</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>59</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>60</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>-220414231</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>67</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>-220414231</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
         <v>68</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>136249979</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>71</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>76879187</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>

--- a/database/industries/felezat/fameli/cashflow/quarterly.xlsx
+++ b/database/industries/felezat/fameli/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fameli\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\felezat\fameli\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B4DC9A-A027-40FB-987C-3A30FE4D5A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954AA819-57C2-472B-A7B2-D339EB5559EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,27 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
     <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
@@ -67,9 +88,39 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-10-28 (2)</t>
+  </si>
+  <si>
+    <t>1399-04-21 (8)</t>
+  </si>
+  <si>
+    <t>1399-04-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-15 (4)</t>
+  </si>
+  <si>
+    <t>1399-11-08 (3)</t>
+  </si>
+  <si>
+    <t>1400-04-23 (10)</t>
+  </si>
+  <si>
+    <t>1400-05-20 (4)</t>
+  </si>
+  <si>
     <t>1400-09-15 (4)</t>
   </si>
   <si>
@@ -88,16 +139,25 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1401-10-28 (7)</t>
-  </si>
-  <si>
-    <t>1401-04-30</t>
-  </si>
-  <si>
-    <t>1401-09-15 (2)</t>
+    <t>1402-04-21 (9)</t>
+  </si>
+  <si>
+    <t>1402-04-30 (3)</t>
+  </si>
+  <si>
+    <t>1402-07-30 (3)</t>
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-07-30 (5)</t>
+  </si>
+  <si>
+    <t>1402-04-30 (2)</t>
+  </si>
+  <si>
+    <t>1402-07-30</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -722,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M57"/>
+  <dimension ref="B1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,14 +790,20 @@
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -750,8 +816,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -766,8 +842,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -782,8 +868,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -796,8 +892,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -812,8 +918,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -828,8 +944,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -842,8 +968,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -878,44 +1014,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -928,10 +1124,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -944,118 +1150,218 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>3129964</v>
+      </c>
+      <c r="E12" s="15">
+        <v>9013630</v>
+      </c>
+      <c r="F12" s="15">
+        <v>11939288</v>
+      </c>
+      <c r="G12" s="15">
+        <v>31653984</v>
+      </c>
+      <c r="H12" s="15">
+        <v>14640946</v>
+      </c>
+      <c r="I12" s="15">
+        <v>24193742</v>
+      </c>
+      <c r="J12" s="15">
+        <v>47600930</v>
+      </c>
+      <c r="K12" s="15">
         <v>76720653</v>
       </c>
-      <c r="E12" s="15">
+      <c r="L12" s="15">
         <v>27889701</v>
       </c>
-      <c r="F12" s="15">
+      <c r="M12" s="15">
         <v>45084157</v>
       </c>
-      <c r="G12" s="15">
+      <c r="N12" s="15">
         <v>9270396</v>
       </c>
-      <c r="H12" s="15">
+      <c r="O12" s="15">
         <v>74674378</v>
       </c>
-      <c r="I12" s="15">
+      <c r="P12" s="15">
         <v>146415378</v>
       </c>
-      <c r="J12" s="15">
-        <v>20162525</v>
-      </c>
-      <c r="K12" s="15">
-        <v>101370285</v>
-      </c>
-      <c r="L12" s="15">
-        <v>249880288</v>
-      </c>
-      <c r="M12" s="15">
+      <c r="Q12" s="15">
+        <v>32006250</v>
+      </c>
+      <c r="R12" s="15">
+        <v>101350304</v>
+      </c>
+      <c r="S12" s="15">
+        <v>249900269</v>
+      </c>
+      <c r="T12" s="15">
         <v>30293748</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U12" s="15">
+        <v>117730200</v>
+      </c>
+      <c r="V12" s="15">
+        <v>208571882</v>
+      </c>
+      <c r="W12" s="15">
+        <v>58048442</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>-874592</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-114140</v>
+      </c>
+      <c r="F13" s="11">
+        <v>-300000</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-953085</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-1354824</v>
+      </c>
+      <c r="I13" s="11">
+        <v>-1550770</v>
+      </c>
+      <c r="J13" s="11">
+        <v>-8918336</v>
+      </c>
+      <c r="K13" s="11">
         <v>2695738</v>
       </c>
-      <c r="E13" s="11">
+      <c r="L13" s="11">
         <v>-700772</v>
       </c>
-      <c r="F13" s="11">
+      <c r="M13" s="11">
         <v>-1700000</v>
       </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
         <v>-6913561</v>
       </c>
-      <c r="I13" s="11">
+      <c r="P13" s="11">
         <v>3085183</v>
       </c>
-      <c r="J13" s="11">
+      <c r="Q13" s="11">
         <v>-8835183</v>
       </c>
-      <c r="K13" s="11">
+      <c r="R13" s="11">
         <v>-11694819</v>
       </c>
-      <c r="L13" s="11">
+      <c r="S13" s="11">
         <v>-5948733</v>
       </c>
-      <c r="M13" s="11">
+      <c r="T13" s="11">
         <v>-12925498</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U13" s="11">
+        <v>-2131104</v>
+      </c>
+      <c r="V13" s="11">
+        <v>-9448874</v>
+      </c>
+      <c r="W13" s="11">
+        <v>-28557151</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>2255372</v>
+      </c>
+      <c r="E14" s="17">
+        <v>8899490</v>
+      </c>
+      <c r="F14" s="17">
+        <v>11639288</v>
+      </c>
+      <c r="G14" s="17">
+        <v>30700899</v>
+      </c>
+      <c r="H14" s="17">
+        <v>13286122</v>
+      </c>
+      <c r="I14" s="17">
+        <v>22642972</v>
+      </c>
+      <c r="J14" s="17">
+        <v>29764258</v>
+      </c>
+      <c r="K14" s="17">
         <v>88334727</v>
       </c>
-      <c r="E14" s="17">
+      <c r="L14" s="17">
         <v>27188929</v>
       </c>
-      <c r="F14" s="17">
+      <c r="M14" s="17">
         <v>43384157</v>
       </c>
-      <c r="G14" s="17">
+      <c r="N14" s="17">
         <v>9270396</v>
       </c>
-      <c r="H14" s="17">
+      <c r="O14" s="17">
         <v>67760817</v>
       </c>
-      <c r="I14" s="17">
+      <c r="P14" s="17">
         <v>149500561</v>
       </c>
-      <c r="J14" s="17">
-        <v>11327342</v>
-      </c>
-      <c r="K14" s="17">
-        <v>89675466</v>
-      </c>
-      <c r="L14" s="17">
-        <v>243931555</v>
-      </c>
-      <c r="M14" s="17">
+      <c r="Q14" s="17">
+        <v>23171067</v>
+      </c>
+      <c r="R14" s="17">
+        <v>89655485</v>
+      </c>
+      <c r="S14" s="17">
+        <v>243951536</v>
+      </c>
+      <c r="T14" s="17">
         <v>17368250</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U14" s="17">
+        <v>115599096</v>
+      </c>
+      <c r="V14" s="17">
+        <v>199123008</v>
+      </c>
+      <c r="W14" s="17">
+        <v>29491291</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1068,82 +1374,152 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>-21304</v>
+      </c>
+      <c r="E16" s="15">
+        <v>89907</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>75231</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <v>155610</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
         <v>358463</v>
       </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15">
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
         <v>-16141</v>
       </c>
-      <c r="G16" s="15">
+      <c r="N16" s="15">
         <v>14749</v>
       </c>
-      <c r="H16" s="15">
+      <c r="O16" s="15">
         <v>551243</v>
       </c>
-      <c r="I16" s="15">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15">
+      <c r="P16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15">
         <v>782294</v>
       </c>
-      <c r="K16" s="15">
+      <c r="R16" s="15">
         <v>6207</v>
       </c>
-      <c r="L16" s="15">
+      <c r="S16" s="15">
         <v>30998</v>
       </c>
-      <c r="M16" s="15">
+      <c r="T16" s="15">
         <v>1311081</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U16" s="15">
+        <v>-569256</v>
+      </c>
+      <c r="V16" s="15">
+        <v>15900</v>
+      </c>
+      <c r="W16" s="15">
+        <v>11285</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
+        <v>-2495627</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-11396918</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-3831224</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-5965374</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-8431702</v>
+      </c>
+      <c r="I17" s="11">
+        <v>-8495489</v>
+      </c>
+      <c r="J17" s="11">
+        <v>-3942219</v>
+      </c>
+      <c r="K17" s="11">
         <v>-10128416</v>
       </c>
-      <c r="E17" s="11">
+      <c r="L17" s="11">
         <v>-12364445</v>
       </c>
-      <c r="F17" s="11">
+      <c r="M17" s="11">
         <v>-23043585</v>
       </c>
-      <c r="G17" s="11">
+      <c r="N17" s="11">
         <v>-9018910</v>
       </c>
-      <c r="H17" s="11">
+      <c r="O17" s="11">
         <v>-17878025</v>
       </c>
-      <c r="I17" s="11">
+      <c r="P17" s="11">
         <v>-17537139</v>
       </c>
-      <c r="J17" s="11">
+      <c r="Q17" s="11">
         <v>-32611893</v>
       </c>
-      <c r="K17" s="11">
+      <c r="R17" s="11">
         <v>-22032593</v>
       </c>
-      <c r="L17" s="11">
+      <c r="S17" s="11">
         <v>-37245100</v>
       </c>
-      <c r="M17" s="11">
+      <c r="T17" s="11">
         <v>-26911023</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U17" s="11">
+        <v>-62951616</v>
+      </c>
+      <c r="V17" s="11">
+        <v>-71264880</v>
+      </c>
+      <c r="W17" s="11">
+        <v>-49785418</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -1176,82 +1552,172 @@
       <c r="M18" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="15">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>0</v>
+      </c>
+      <c r="R18" s="15">
+        <v>0</v>
+      </c>
+      <c r="S18" s="15">
+        <v>0</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>6322</v>
+      </c>
+      <c r="G19" s="11">
+        <v>-6322</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>10253006</v>
+      </c>
+      <c r="J19" s="11">
+        <v>4199</v>
+      </c>
+      <c r="K19" s="11">
         <v>1878417</v>
       </c>
-      <c r="E19" s="11">
+      <c r="L19" s="11">
         <v>-912546</v>
       </c>
-      <c r="F19" s="11">
+      <c r="M19" s="11">
         <v>2062715</v>
       </c>
-      <c r="G19" s="11">
+      <c r="N19" s="11">
         <v>4570</v>
       </c>
-      <c r="H19" s="11">
+      <c r="O19" s="11">
         <v>180959</v>
       </c>
-      <c r="I19" s="11">
+      <c r="P19" s="11">
         <v>-16704</v>
       </c>
-      <c r="J19" s="11">
-        <v>10082782</v>
-      </c>
-      <c r="K19" s="11">
-        <v>144436</v>
-      </c>
-      <c r="L19" s="11">
-        <v>9922853</v>
-      </c>
-      <c r="M19" s="11">
+      <c r="Q19" s="11">
+        <v>-168825</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>10067289</v>
+      </c>
+      <c r="T19" s="11">
         <v>184318</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U19" s="11">
+        <v>-10251607</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>-192825</v>
+      </c>
+      <c r="E20" s="15">
+        <v>-384023</v>
+      </c>
+      <c r="F20" s="15">
+        <v>-1094223</v>
+      </c>
+      <c r="G20" s="15">
+        <v>173654</v>
+      </c>
+      <c r="H20" s="15">
+        <v>-255093</v>
+      </c>
+      <c r="I20" s="15">
+        <v>-10081888</v>
+      </c>
+      <c r="J20" s="15">
+        <v>-332809</v>
+      </c>
+      <c r="K20" s="15">
         <v>332590</v>
       </c>
-      <c r="E20" s="15">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15">
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
         <v>-2727485</v>
       </c>
-      <c r="G20" s="15">
+      <c r="N20" s="15">
         <v>-491408</v>
       </c>
-      <c r="H20" s="15">
+      <c r="O20" s="15">
         <v>-1840421</v>
       </c>
-      <c r="I20" s="15">
+      <c r="P20" s="15">
         <v>-447690</v>
       </c>
-      <c r="J20" s="15">
-        <v>-8639519</v>
-      </c>
-      <c r="K20" s="15">
-        <v>-164416</v>
-      </c>
-      <c r="L20" s="15">
-        <v>-10195616</v>
-      </c>
-      <c r="M20" s="15">
+      <c r="Q20" s="15">
+        <v>2737722</v>
+      </c>
+      <c r="R20" s="15">
+        <v>0</v>
+      </c>
+      <c r="S20" s="15">
+        <v>-10360032</v>
+      </c>
+      <c r="T20" s="15">
         <v>-669089</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U20" s="15">
+        <v>10650711</v>
+      </c>
+      <c r="V20" s="15">
+        <v>0</v>
+      </c>
+      <c r="W20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1284,10 +1750,40 @@
       <c r="M21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1320,10 +1816,40 @@
       <c r="M22" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="15">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22" s="15">
+        <v>0</v>
+      </c>
+      <c r="S22" s="15">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
+        <v>0</v>
+      </c>
+      <c r="W22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1333,141 +1859,261 @@
         <v>0</v>
       </c>
       <c r="F23" s="11">
+        <v>641559</v>
+      </c>
+      <c r="G23" s="11">
+        <v>-641559</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
         <v>16538085</v>
       </c>
-      <c r="G23" s="11">
+      <c r="N23" s="11">
         <v>3095889</v>
       </c>
-      <c r="H23" s="11">
+      <c r="O23" s="11">
         <v>42619460</v>
       </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11">
-        <v>-45715349</v>
-      </c>
-      <c r="K23" s="11">
+      <c r="P23" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>57603613</v>
+      </c>
+      <c r="R23" s="11">
         <v>104191868</v>
       </c>
-      <c r="L23" s="11">
+      <c r="S23" s="11">
         <v>18499945</v>
       </c>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T23" s="11">
+        <v>0</v>
+      </c>
+      <c r="U23" s="11">
+        <v>249480400</v>
+      </c>
+      <c r="V23" s="11">
+        <v>24705000</v>
+      </c>
+      <c r="W23" s="11">
+        <v>14683000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
+        <v>-1177290</v>
+      </c>
+      <c r="E24" s="15">
+        <v>-754090</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>-1461389</v>
+      </c>
+      <c r="H24" s="15">
+        <v>-5335065</v>
+      </c>
+      <c r="I24" s="15">
+        <v>-10647094</v>
+      </c>
+      <c r="J24" s="15">
+        <v>-3116904</v>
+      </c>
+      <c r="K24" s="15">
         <v>-43502908</v>
       </c>
-      <c r="E24" s="15">
+      <c r="L24" s="15">
         <v>-16818398</v>
       </c>
-      <c r="F24" s="15">
+      <c r="M24" s="15">
         <v>-13944668</v>
       </c>
-      <c r="G24" s="15">
+      <c r="N24" s="15">
         <v>-23707211</v>
       </c>
-      <c r="H24" s="15">
+      <c r="O24" s="15">
         <v>-74316199</v>
       </c>
-      <c r="I24" s="15">
+      <c r="P24" s="15">
         <v>-101660702</v>
       </c>
-      <c r="J24" s="15">
-        <v>53376093</v>
-      </c>
-      <c r="K24" s="15">
+      <c r="Q24" s="15">
+        <v>-49942869</v>
+      </c>
+      <c r="R24" s="15">
         <v>-123091051</v>
       </c>
-      <c r="L24" s="15">
+      <c r="S24" s="15">
         <v>18450585</v>
       </c>
-      <c r="M24" s="15">
+      <c r="T24" s="15">
         <v>-26613995</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U24" s="15">
+        <v>-296362643</v>
+      </c>
+      <c r="V24" s="15">
+        <v>-115337269</v>
+      </c>
+      <c r="W24" s="15">
+        <v>-11225560</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
+        <v>-533000</v>
+      </c>
+      <c r="E25" s="11">
+        <v>18909093</v>
+      </c>
+      <c r="F25" s="11">
+        <v>171877</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1524063</v>
+      </c>
+      <c r="H25" s="11">
+        <v>-734516</v>
+      </c>
+      <c r="I25" s="11">
+        <v>125289</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
         <v>3673134</v>
       </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11">
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
         <v>14917984</v>
       </c>
-      <c r="G25" s="11">
+      <c r="N25" s="11">
         <v>12546507</v>
       </c>
-      <c r="H25" s="11">
+      <c r="O25" s="11">
         <v>27403493</v>
       </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
         <v>54752000</v>
       </c>
-      <c r="K25" s="11">
+      <c r="R25" s="11">
         <v>24731161</v>
       </c>
-      <c r="L25" s="11">
+      <c r="S25" s="11">
         <v>13688984</v>
       </c>
-      <c r="M25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
+        <v>66408216</v>
+      </c>
+      <c r="V25" s="11">
+        <v>0</v>
+      </c>
+      <c r="W25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
+        <v>-661379</v>
+      </c>
+      <c r="E26" s="15">
+        <v>-13526094</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>-2547149</v>
+      </c>
+      <c r="H26" s="15">
+        <v>2547149</v>
+      </c>
+      <c r="I26" s="15">
+        <v>-3073937</v>
+      </c>
+      <c r="J26" s="15">
+        <v>-2745766</v>
+      </c>
+      <c r="K26" s="15">
         <v>-42518767</v>
       </c>
-      <c r="E26" s="15">
+      <c r="L26" s="15">
         <v>-9550883</v>
       </c>
-      <c r="F26" s="15">
+      <c r="M26" s="15">
         <v>-15339326</v>
       </c>
-      <c r="G26" s="15">
+      <c r="N26" s="15">
         <v>-9060371</v>
       </c>
-      <c r="H26" s="15">
+      <c r="O26" s="15">
         <v>2532185</v>
       </c>
-      <c r="I26" s="15">
+      <c r="P26" s="15">
         <v>-228031</v>
       </c>
-      <c r="J26" s="15">
+      <c r="Q26" s="15">
         <v>-71749093</v>
       </c>
-      <c r="K26" s="15">
+      <c r="R26" s="15">
         <v>-41808707</v>
       </c>
-      <c r="L26" s="15">
+      <c r="S26" s="15">
         <v>-161412818</v>
       </c>
-      <c r="M26" s="15">
+      <c r="T26" s="15">
         <v>174396049</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U26" s="15">
+        <v>-70453715</v>
+      </c>
+      <c r="V26" s="15">
+        <v>-5459695</v>
+      </c>
+      <c r="W26" s="15">
+        <v>4604300</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1500,10 +2146,40 @@
       <c r="M27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>0</v>
+      </c>
+      <c r="R27" s="11">
+        <v>0</v>
+      </c>
+      <c r="S27" s="11">
+        <v>0</v>
+      </c>
+      <c r="T27" s="11">
+        <v>0</v>
+      </c>
+      <c r="U27" s="11">
+        <v>0</v>
+      </c>
+      <c r="V27" s="11">
+        <v>0</v>
+      </c>
+      <c r="W27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1536,10 +2212,40 @@
       <c r="M28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="15">
+        <v>0</v>
+      </c>
+      <c r="O28" s="15">
+        <v>0</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0</v>
+      </c>
+      <c r="S28" s="15">
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
+        <v>0</v>
+      </c>
+      <c r="W28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1572,10 +2278,40 @@
       <c r="M29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0</v>
+      </c>
+      <c r="R29" s="11">
+        <v>0</v>
+      </c>
+      <c r="S29" s="11">
+        <v>0</v>
+      </c>
+      <c r="T29" s="11">
+        <v>0</v>
+      </c>
+      <c r="U29" s="11">
+        <v>0</v>
+      </c>
+      <c r="V29" s="11">
+        <v>0</v>
+      </c>
+      <c r="W29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
@@ -1585,141 +2321,261 @@
         <v>0</v>
       </c>
       <c r="F30" s="15">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G30" s="15">
-        <v>0</v>
+        <v>-12500</v>
       </c>
       <c r="H30" s="15">
+        <v>0</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15">
         <v>10059836</v>
       </c>
-      <c r="I30" s="15">
+      <c r="P30" s="15">
         <v>-10059836</v>
       </c>
-      <c r="J30" s="15">
-        <v>0</v>
-      </c>
-      <c r="K30" s="15">
-        <v>0</v>
-      </c>
-      <c r="L30" s="15">
-        <v>2652710</v>
-      </c>
-      <c r="M30" s="15">
+      <c r="Q30" s="15">
+        <v>0</v>
+      </c>
+      <c r="R30" s="15">
+        <v>0</v>
+      </c>
+      <c r="S30" s="15">
+        <v>0</v>
+      </c>
+      <c r="T30" s="15">
         <v>-2652710</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U30" s="15">
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
+        <v>0</v>
+      </c>
+      <c r="W30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
+        <v>607688</v>
+      </c>
+      <c r="E31" s="11">
+        <v>551906</v>
+      </c>
+      <c r="F31" s="11">
+        <v>199050</v>
+      </c>
+      <c r="G31" s="11">
+        <v>558878</v>
+      </c>
+      <c r="H31" s="11">
+        <v>826774</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1339195</v>
+      </c>
+      <c r="J31" s="11">
+        <v>1348139</v>
+      </c>
+      <c r="K31" s="11">
         <v>2613966</v>
       </c>
-      <c r="E31" s="11">
+      <c r="L31" s="11">
         <v>1854634</v>
       </c>
-      <c r="F31" s="11">
+      <c r="M31" s="11">
         <v>7910631</v>
       </c>
-      <c r="G31" s="11">
+      <c r="N31" s="11">
         <v>3594898</v>
       </c>
-      <c r="H31" s="11">
+      <c r="O31" s="11">
         <v>-3594898</v>
       </c>
-      <c r="I31" s="11">
+      <c r="P31" s="11">
         <v>16638983</v>
       </c>
-      <c r="J31" s="11">
+      <c r="Q31" s="11">
         <v>24126236</v>
       </c>
-      <c r="K31" s="11">
+      <c r="R31" s="11">
         <v>5808248</v>
       </c>
-      <c r="L31" s="11">
-        <v>-5808248</v>
-      </c>
-      <c r="M31" s="11">
+      <c r="S31" s="11">
+        <v>-3155538</v>
+      </c>
+      <c r="T31" s="11">
         <v>24630558</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U31" s="11">
+        <v>9291591</v>
+      </c>
+      <c r="V31" s="11">
+        <v>7446745</v>
+      </c>
+      <c r="W31" s="11">
+        <v>11244175</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
+        <v>-4473737</v>
+      </c>
+      <c r="E32" s="17">
+        <v>-6510219</v>
+      </c>
+      <c r="F32" s="17">
+        <v>-3894139</v>
+      </c>
+      <c r="G32" s="17">
+        <v>-8302467</v>
+      </c>
+      <c r="H32" s="17">
+        <v>-11382453</v>
+      </c>
+      <c r="I32" s="17">
+        <v>-20425308</v>
+      </c>
+      <c r="J32" s="17">
+        <v>-8785360</v>
+      </c>
+      <c r="K32" s="17">
         <v>-87293521</v>
       </c>
-      <c r="E32" s="17">
+      <c r="L32" s="17">
         <v>-37791638</v>
       </c>
-      <c r="F32" s="17">
+      <c r="M32" s="17">
         <v>-13641790</v>
       </c>
-      <c r="G32" s="17">
+      <c r="N32" s="17">
         <v>-23021287</v>
       </c>
-      <c r="H32" s="17">
+      <c r="O32" s="17">
         <v>-14282367</v>
       </c>
-      <c r="I32" s="17">
+      <c r="P32" s="17">
         <v>-113311119</v>
       </c>
-      <c r="J32" s="17">
-        <v>-15596449</v>
-      </c>
-      <c r="K32" s="17">
-        <v>-52214847</v>
-      </c>
-      <c r="L32" s="17">
-        <v>-151415707</v>
-      </c>
-      <c r="M32" s="17">
+      <c r="Q32" s="17">
+        <v>-14470815</v>
+      </c>
+      <c r="R32" s="17">
+        <v>-52194867</v>
+      </c>
+      <c r="S32" s="17">
+        <v>-151435687</v>
+      </c>
+      <c r="T32" s="17">
         <v>143675189</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U32" s="17">
+        <v>-104757919</v>
+      </c>
+      <c r="V32" s="17">
+        <v>-159894199</v>
+      </c>
+      <c r="W32" s="17">
+        <v>-30468218</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
+        <v>-2218365</v>
+      </c>
+      <c r="E33" s="19">
+        <v>2389271</v>
+      </c>
+      <c r="F33" s="19">
+        <v>7745149</v>
+      </c>
+      <c r="G33" s="19">
+        <v>22398432</v>
+      </c>
+      <c r="H33" s="19">
+        <v>1903669</v>
+      </c>
+      <c r="I33" s="19">
+        <v>2217664</v>
+      </c>
+      <c r="J33" s="19">
+        <v>20978898</v>
+      </c>
+      <c r="K33" s="19">
         <v>1041206</v>
       </c>
-      <c r="E33" s="19">
+      <c r="L33" s="19">
         <v>-10602709</v>
       </c>
-      <c r="F33" s="19">
+      <c r="M33" s="19">
         <v>29742367</v>
       </c>
-      <c r="G33" s="19">
+      <c r="N33" s="19">
         <v>-13750891</v>
       </c>
-      <c r="H33" s="19">
+      <c r="O33" s="19">
         <v>53478450</v>
       </c>
-      <c r="I33" s="19">
+      <c r="P33" s="19">
         <v>36189442</v>
       </c>
-      <c r="J33" s="19">
-        <v>-4269107</v>
-      </c>
-      <c r="K33" s="19">
-        <v>37460619</v>
-      </c>
-      <c r="L33" s="19">
-        <v>92515848</v>
-      </c>
-      <c r="M33" s="19">
+      <c r="Q33" s="19">
+        <v>8700252</v>
+      </c>
+      <c r="R33" s="19">
+        <v>37460618</v>
+      </c>
+      <c r="S33" s="19">
+        <v>92515849</v>
+      </c>
+      <c r="T33" s="19">
         <v>161043439</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U33" s="19">
+        <v>10841177</v>
+      </c>
+      <c r="V33" s="19">
+        <v>39228809</v>
+      </c>
+      <c r="W33" s="19">
+        <v>-976927</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1732,10 +2588,20 @@
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1768,46 +2634,106 @@
       <c r="M35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>0</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0</v>
+      </c>
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="11">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="M36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1829,21 +2755,51 @@
         <v>0</v>
       </c>
       <c r="J37" s="15">
-        <v>12969359</v>
+        <v>0</v>
       </c>
       <c r="K37" s="15">
         <v>0</v>
       </c>
       <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
+        <v>0</v>
+      </c>
+      <c r="P37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>0</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0</v>
+      </c>
+      <c r="S37" s="15">
         <v>17657841</v>
       </c>
-      <c r="M37" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>-17657841</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1853,33 +2809,63 @@
         <v>0</v>
       </c>
       <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
         <v>-11591922</v>
       </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
         <v>-1387559</v>
       </c>
-      <c r="I38" s="11">
+      <c r="P38" s="11">
         <v>-856380</v>
       </c>
-      <c r="J38" s="11">
+      <c r="Q38" s="11">
         <v>-15784078</v>
       </c>
-      <c r="K38" s="11">
+      <c r="R38" s="11">
         <v>-1714394</v>
       </c>
-      <c r="L38" s="11">
+      <c r="S38" s="11">
         <v>1635803</v>
       </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
@@ -1889,105 +2875,195 @@
         <v>0</v>
       </c>
       <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
+        <v>0</v>
+      </c>
+      <c r="I39" s="15">
+        <v>0</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
         <v>2698767</v>
       </c>
-      <c r="G39" s="15">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15">
-        <v>0</v>
-      </c>
-      <c r="I39" s="15">
-        <v>0</v>
-      </c>
-      <c r="J39" s="15">
-        <v>0</v>
-      </c>
-      <c r="K39" s="15">
-        <v>0</v>
-      </c>
-      <c r="L39" s="15">
-        <v>0</v>
-      </c>
-      <c r="M39" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="15">
+        <v>0</v>
+      </c>
+      <c r="O39" s="15">
+        <v>0</v>
+      </c>
+      <c r="P39" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="15">
+        <v>0</v>
+      </c>
+      <c r="R39" s="15">
+        <v>0</v>
+      </c>
+      <c r="S39" s="15">
+        <v>0</v>
+      </c>
+      <c r="T39" s="15">
+        <v>0</v>
+      </c>
+      <c r="U39" s="15">
+        <v>0</v>
+      </c>
+      <c r="V39" s="15">
+        <v>0</v>
+      </c>
+      <c r="W39" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
+        <v>-2480</v>
+      </c>
+      <c r="G40" s="11">
+        <v>-185682</v>
+      </c>
+      <c r="H40" s="11">
+        <v>-141123</v>
+      </c>
+      <c r="I40" s="11">
+        <v>-873635</v>
+      </c>
+      <c r="J40" s="11">
+        <v>-4953013</v>
+      </c>
+      <c r="K40" s="11">
         <v>-853070</v>
       </c>
-      <c r="E40" s="11">
-        <v>0</v>
-      </c>
-      <c r="F40" s="11">
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
         <v>-740550</v>
       </c>
-      <c r="G40" s="11">
+      <c r="N40" s="11">
         <v>-3474343</v>
       </c>
-      <c r="H40" s="11">
+      <c r="O40" s="11">
         <v>-245448</v>
       </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-      <c r="J40" s="11">
+      <c r="P40" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="11">
         <v>2</v>
       </c>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R40" s="11">
+        <v>0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11">
+        <v>0</v>
+      </c>
+      <c r="U40" s="11">
+        <v>0</v>
+      </c>
+      <c r="V40" s="11">
+        <v>0</v>
+      </c>
+      <c r="W40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>-63119</v>
+      </c>
+      <c r="E41" s="15">
+        <v>-55357</v>
+      </c>
+      <c r="F41" s="15">
+        <v>0</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-70795</v>
+      </c>
+      <c r="H41" s="15">
+        <v>-13827</v>
+      </c>
+      <c r="I41" s="15">
+        <v>-851801</v>
+      </c>
+      <c r="J41" s="15">
+        <v>-193568</v>
+      </c>
+      <c r="K41" s="15">
         <v>96902</v>
       </c>
-      <c r="E41" s="15">
-        <v>0</v>
-      </c>
-      <c r="F41" s="15">
+      <c r="L41" s="15">
+        <v>0</v>
+      </c>
+      <c r="M41" s="15">
         <v>-225350</v>
       </c>
-      <c r="G41" s="15">
+      <c r="N41" s="15">
         <v>-157627</v>
       </c>
-      <c r="H41" s="15">
+      <c r="O41" s="15">
         <v>59412</v>
       </c>
-      <c r="I41" s="15">
-        <v>0</v>
-      </c>
-      <c r="J41" s="15">
-        <v>0</v>
-      </c>
-      <c r="K41" s="15">
-        <v>0</v>
-      </c>
-      <c r="L41" s="15">
-        <v>0</v>
-      </c>
-      <c r="M41" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P41" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="15">
+        <v>0</v>
+      </c>
+      <c r="R41" s="15">
+        <v>0</v>
+      </c>
+      <c r="S41" s="15">
+        <v>0</v>
+      </c>
+      <c r="T41" s="15">
+        <v>0</v>
+      </c>
+      <c r="U41" s="15">
+        <v>0</v>
+      </c>
+      <c r="V41" s="15">
+        <v>0</v>
+      </c>
+      <c r="W41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -2020,10 +3096,40 @@
       <c r="M42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="11">
+        <v>0</v>
+      </c>
+      <c r="O42" s="11">
+        <v>0</v>
+      </c>
+      <c r="P42" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>0</v>
+      </c>
+      <c r="R42" s="11">
+        <v>0</v>
+      </c>
+      <c r="S42" s="11">
+        <v>0</v>
+      </c>
+      <c r="T42" s="11">
+        <v>0</v>
+      </c>
+      <c r="U42" s="11">
+        <v>0</v>
+      </c>
+      <c r="V42" s="11">
+        <v>0</v>
+      </c>
+      <c r="W42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -2056,10 +3162,40 @@
       <c r="M43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="15">
+        <v>0</v>
+      </c>
+      <c r="O43" s="15">
+        <v>0</v>
+      </c>
+      <c r="P43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>0</v>
+      </c>
+      <c r="R43" s="15">
+        <v>0</v>
+      </c>
+      <c r="S43" s="15">
+        <v>0</v>
+      </c>
+      <c r="T43" s="15">
+        <v>0</v>
+      </c>
+      <c r="U43" s="15">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15">
+        <v>0</v>
+      </c>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -2092,10 +3228,40 @@
       <c r="M44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11">
+        <v>0</v>
+      </c>
+      <c r="P44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>0</v>
+      </c>
+      <c r="R44" s="11">
+        <v>0</v>
+      </c>
+      <c r="S44" s="11">
+        <v>0</v>
+      </c>
+      <c r="T44" s="11">
+        <v>0</v>
+      </c>
+      <c r="U44" s="11">
+        <v>0</v>
+      </c>
+      <c r="V44" s="11">
+        <v>0</v>
+      </c>
+      <c r="W44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2128,10 +3294,40 @@
       <c r="M45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+      <c r="O45" s="15">
+        <v>0</v>
+      </c>
+      <c r="P45" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>0</v>
+      </c>
+      <c r="R45" s="15">
+        <v>0</v>
+      </c>
+      <c r="S45" s="15">
+        <v>0</v>
+      </c>
+      <c r="T45" s="15">
+        <v>0</v>
+      </c>
+      <c r="U45" s="15">
+        <v>0</v>
+      </c>
+      <c r="V45" s="15">
+        <v>0</v>
+      </c>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2164,10 +3360,40 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2200,10 +3426,40 @@
       <c r="M47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2236,10 +3492,40 @@
       <c r="M48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <v>0</v>
+      </c>
+      <c r="W48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2272,260 +3558,500 @@
       <c r="M49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15">
+        <v>0</v>
+      </c>
+      <c r="S49" s="15">
+        <v>0</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>0</v>
+      </c>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>-4833161</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-3349949</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-10927</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-681007</v>
+      </c>
+      <c r="H50" s="11">
+        <v>-5186487</v>
+      </c>
+      <c r="I50" s="11">
+        <v>-4657860</v>
+      </c>
+      <c r="J50" s="11">
+        <v>-16717</v>
+      </c>
+      <c r="K50" s="11">
         <v>-2136116</v>
       </c>
-      <c r="E50" s="11">
+      <c r="L50" s="11">
         <v>-1418286</v>
       </c>
-      <c r="F50" s="11">
+      <c r="M50" s="11">
         <v>-19503290</v>
       </c>
-      <c r="G50" s="11">
+      <c r="N50" s="11">
         <v>-63800</v>
       </c>
-      <c r="H50" s="11">
+      <c r="O50" s="11">
         <v>-4760650</v>
       </c>
-      <c r="I50" s="11">
+      <c r="P50" s="11">
         <v>-12623967</v>
       </c>
-      <c r="J50" s="11">
+      <c r="Q50" s="11">
         <v>-42576105</v>
       </c>
-      <c r="K50" s="11">
+      <c r="R50" s="11">
         <v>-94819</v>
       </c>
-      <c r="L50" s="11">
+      <c r="S50" s="11">
         <v>-44408770</v>
       </c>
-      <c r="M50" s="11">
+      <c r="T50" s="11">
         <v>-220414231</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U50" s="11">
+        <v>-14333582</v>
+      </c>
+      <c r="V50" s="11">
+        <v>-59577</v>
+      </c>
+      <c r="W50" s="11">
+        <v>-22643244</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
+        <v>-4896280</v>
+      </c>
+      <c r="E51" s="17">
+        <v>-3405306</v>
+      </c>
+      <c r="F51" s="17">
+        <v>-13407</v>
+      </c>
+      <c r="G51" s="17">
+        <v>-937484</v>
+      </c>
+      <c r="H51" s="17">
+        <v>-5341437</v>
+      </c>
+      <c r="I51" s="17">
+        <v>-6383296</v>
+      </c>
+      <c r="J51" s="17">
+        <v>-5180015</v>
+      </c>
+      <c r="K51" s="17">
         <v>-2875567</v>
       </c>
-      <c r="E51" s="17">
+      <c r="L51" s="17">
         <v>-1418286</v>
       </c>
-      <c r="F51" s="17">
+      <c r="M51" s="17">
         <v>-29362345</v>
       </c>
-      <c r="G51" s="17">
+      <c r="N51" s="17">
         <v>-3695770</v>
       </c>
-      <c r="H51" s="17">
+      <c r="O51" s="17">
         <v>-6334245</v>
       </c>
-      <c r="I51" s="17">
+      <c r="P51" s="17">
         <v>-13480347</v>
       </c>
-      <c r="J51" s="17">
-        <v>-45390822</v>
-      </c>
-      <c r="K51" s="17">
+      <c r="Q51" s="17">
+        <v>-58360181</v>
+      </c>
+      <c r="R51" s="17">
         <v>-1809213</v>
       </c>
-      <c r="L51" s="17">
+      <c r="S51" s="17">
         <v>-25115126</v>
       </c>
-      <c r="M51" s="17">
+      <c r="T51" s="17">
         <v>-220414231</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U51" s="17">
+        <v>-31991423</v>
+      </c>
+      <c r="V51" s="17">
+        <v>-59577</v>
+      </c>
+      <c r="W51" s="17">
+        <v>-22643244</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
+        <v>-7114645</v>
+      </c>
+      <c r="E52" s="19">
+        <v>-1016035</v>
+      </c>
+      <c r="F52" s="19">
+        <v>7731742</v>
+      </c>
+      <c r="G52" s="19">
+        <v>21460948</v>
+      </c>
+      <c r="H52" s="19">
+        <v>-3437768</v>
+      </c>
+      <c r="I52" s="19">
+        <v>-4165632</v>
+      </c>
+      <c r="J52" s="19">
+        <v>24733936</v>
+      </c>
+      <c r="K52" s="19">
         <v>-10769414</v>
       </c>
-      <c r="E52" s="19">
+      <c r="L52" s="19">
         <v>-12020995</v>
       </c>
-      <c r="F52" s="19">
+      <c r="M52" s="19">
         <v>380022</v>
       </c>
-      <c r="G52" s="19">
+      <c r="N52" s="19">
         <v>-17446661</v>
       </c>
-      <c r="H52" s="19">
+      <c r="O52" s="19">
         <v>47144205</v>
       </c>
-      <c r="I52" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J52" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K52" s="19">
-        <v>35651406</v>
-      </c>
-      <c r="L52" s="19">
-        <v>67400722</v>
-      </c>
-      <c r="M52" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P52" s="19">
+        <v>22709095</v>
+      </c>
+      <c r="Q52" s="19">
+        <v>-49659929</v>
+      </c>
+      <c r="R52" s="19">
+        <v>35651405</v>
+      </c>
+      <c r="S52" s="19">
+        <v>67400723</v>
+      </c>
+      <c r="T52" s="19">
+        <v>-59370792</v>
+      </c>
+      <c r="U52" s="19">
+        <v>-21150246</v>
+      </c>
+      <c r="V52" s="19">
+        <v>39169232</v>
+      </c>
+      <c r="W52" s="19">
+        <v>-23620171</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>13127636</v>
+      </c>
+      <c r="E53" s="15">
+        <v>5351166</v>
+      </c>
+      <c r="F53" s="15">
+        <v>4638754</v>
+      </c>
+      <c r="G53" s="15">
+        <v>12370496</v>
+      </c>
+      <c r="H53" s="15">
+        <v>34051788</v>
+      </c>
+      <c r="I53" s="15">
+        <v>30614021</v>
+      </c>
+      <c r="J53" s="15">
+        <v>26659685</v>
+      </c>
+      <c r="K53" s="15">
         <v>51393621</v>
       </c>
-      <c r="E53" s="15">
+      <c r="L53" s="15">
         <v>41295577</v>
       </c>
-      <c r="F53" s="15">
+      <c r="M53" s="15">
         <v>29274582</v>
       </c>
-      <c r="G53" s="15">
+      <c r="N53" s="15">
         <v>29825975</v>
       </c>
-      <c r="H53" s="15">
-        <v>12379314</v>
-      </c>
-      <c r="I53" s="15">
-        <v>60094972</v>
-      </c>
-      <c r="J53" s="15">
+      <c r="O53" s="15">
+        <v>0</v>
+      </c>
+      <c r="P53" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
         <v>82804067</v>
       </c>
-      <c r="K53" s="15">
+      <c r="R53" s="15">
         <v>33040302</v>
       </c>
-      <c r="L53" s="15">
-        <v>68691708</v>
-      </c>
-      <c r="M53" s="15">
-        <v>136249979</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="S53" s="15">
+        <v>68691707</v>
+      </c>
+      <c r="T53" s="15">
+        <v>0</v>
+      </c>
+      <c r="U53" s="15">
+        <v>76879187</v>
+      </c>
+      <c r="V53" s="15">
+        <v>55923503</v>
+      </c>
+      <c r="W53" s="15">
+        <v>95092735</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
+        <v>-661825</v>
+      </c>
+      <c r="E54" s="11">
+        <v>303623</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>220344</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>211297</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
         <v>671370</v>
       </c>
-      <c r="E54" s="11">
-        <v>0</v>
-      </c>
-      <c r="F54" s="11">
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
         <v>171371</v>
       </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
+      <c r="N54" s="11">
+        <v>0</v>
+      </c>
+      <c r="O54" s="11">
         <v>571453</v>
       </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11">
+      <c r="P54" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="11">
         <v>-103836</v>
       </c>
-      <c r="K54" s="11">
-        <v>0</v>
-      </c>
-      <c r="L54" s="11">
+      <c r="R54" s="11">
+        <v>0</v>
+      </c>
+      <c r="S54" s="11">
         <v>157549</v>
       </c>
-      <c r="M54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T54" s="11">
+        <v>0</v>
+      </c>
+      <c r="U54" s="11">
+        <v>194562</v>
+      </c>
+      <c r="V54" s="11">
+        <v>0</v>
+      </c>
+      <c r="W54" s="11">
+        <v>583184</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
+        <v>5351166</v>
+      </c>
+      <c r="E55" s="17">
+        <v>4638754</v>
+      </c>
+      <c r="F55" s="17">
+        <v>12370496</v>
+      </c>
+      <c r="G55" s="17">
+        <v>34051788</v>
+      </c>
+      <c r="H55" s="17">
+        <v>30614021</v>
+      </c>
+      <c r="I55" s="17">
+        <v>26659685</v>
+      </c>
+      <c r="J55" s="17">
+        <v>51393621</v>
+      </c>
+      <c r="K55" s="17">
         <v>41295577</v>
       </c>
-      <c r="E55" s="17">
+      <c r="L55" s="17">
         <v>29274582</v>
       </c>
-      <c r="F55" s="17">
+      <c r="M55" s="17">
         <v>29825975</v>
       </c>
-      <c r="G55" s="17">
+      <c r="N55" s="17">
         <v>12379314</v>
       </c>
-      <c r="H55" s="17">
+      <c r="O55" s="17">
         <v>60094972</v>
       </c>
-      <c r="I55" s="17">
+      <c r="P55" s="17">
         <v>82804067</v>
       </c>
-      <c r="J55" s="17">
+      <c r="Q55" s="17">
         <v>33040302</v>
       </c>
-      <c r="K55" s="17">
-        <v>68691708</v>
-      </c>
-      <c r="L55" s="17">
+      <c r="R55" s="17">
+        <v>68691707</v>
+      </c>
+      <c r="S55" s="17">
         <v>136249979</v>
       </c>
-      <c r="M55" s="17">
+      <c r="T55" s="17">
         <v>76879187</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U55" s="17">
+        <v>55923503</v>
+      </c>
+      <c r="V55" s="17">
+        <v>95092735</v>
+      </c>
+      <c r="W55" s="17">
+        <v>72055748</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>1921200</v>
+      </c>
+      <c r="E56" s="11">
+        <v>-3335924</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
+        <v>5189872</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
         <v>2909358</v>
       </c>
-      <c r="E56" s="11">
-        <v>0</v>
-      </c>
-      <c r="F56" s="11">
+      <c r="L56" s="11">
+        <v>0</v>
+      </c>
+      <c r="M56" s="11">
         <v>-923105</v>
       </c>
-      <c r="G56" s="11">
-        <v>0</v>
-      </c>
-      <c r="H56" s="11">
+      <c r="N56" s="11">
+        <v>0</v>
+      </c>
+      <c r="O56" s="11">
         <v>4390433</v>
       </c>
-      <c r="I56" s="11">
-        <v>0</v>
-      </c>
-      <c r="J56" s="11">
-        <v>0</v>
-      </c>
-      <c r="K56" s="11">
-        <v>0</v>
-      </c>
-      <c r="L56" s="11">
-        <v>0</v>
-      </c>
-      <c r="M56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="P56" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="11">
+        <v>0</v>
+      </c>
+      <c r="R56" s="11">
+        <v>0</v>
+      </c>
+      <c r="S56" s="11">
+        <v>0</v>
+      </c>
+      <c r="T56" s="11">
+        <v>0</v>
+      </c>
+      <c r="U56" s="11">
+        <v>0</v>
+      </c>
+      <c r="V56" s="11">
+        <v>0</v>
+      </c>
+      <c r="W56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2538,6 +4064,16 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
